--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA723E7-481B-4ADE-9BBD-E5D4D82318D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B56DEAE-84CF-4E26-AB24-212D82F23C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B56DEAE-84CF-4E26-AB24-212D82F23C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E29763-BE4A-4BAA-A276-3D7618DBCBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6324" yWindow="2364" windowWidth="10848" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>Dave</t>
   </si>
   <si>
-    <t>2025-03-10;2025-03-15</t>
-  </si>
-  <si>
-    <t>2025-04-05;2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-02-25;2025-02-28</t>
+    <t>2025-04-05;2025-04-10|</t>
+  </si>
+  <si>
+    <t>2025-02-25;2025-02-28|</t>
+  </si>
+  <si>
+    <t>2025-03-10;2025-03-15|2025-05-10;2025-05-15</t>
   </si>
 </sst>
 </file>
@@ -116,6 +116,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+  <autoFilter ref="A1:D5" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{FCDF013B-522F-424B-BADC-9CEF21FEDF0C}" name="Team Name"/>
+    <tableColumn id="2" xr3:uid="{6FD6B03C-FF41-424E-B780-CE9F18124A33}" name="Developer Name"/>
+    <tableColumn id="3" xr3:uid="{739677C6-659D-4128-8D44-67677C3D3029}" name="Developer Vacation Date Intervals"/>
+    <tableColumn id="4" xr3:uid="{CF1E86B6-655B-4B30-A05A-C620D03124E5}" name="Daily Work Hours"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,15 +397,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -417,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -442,7 +455,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -456,7 +469,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -464,5 +477,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E29763-BE4A-4BAA-A276-3D7618DBCBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67482E9F-BB55-46EA-811A-82119FF5F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6324" yWindow="2364" windowWidth="10848" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67482E9F-BB55-46EA-811A-82119FF5F078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D49A1-A53F-4281-B5D1-50840A48370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="6840" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,7 +403,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,6 +482,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D49A1-A53F-4281-B5D1-50840A48370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26754D-9DEE-44B7-B922-8BF0D815DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="6840" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26754D-9DEE-44B7-B922-8BF0D815DEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF07598-6667-4741-9C06-4D1066C341A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="6840" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF07598-6667-4741-9C06-4D1066C341A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992B169-637B-4E79-BA84-7558971FCEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/ExampleFiles/team.xlsx
+++ b/ExampleFiles/team.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josef\source\repos\SpreadsheetUtilities\ExampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A992B169-637B-4E79-BA84-7558971FCEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9443DD18-219C-4EBD-AF40-2D396BEEC0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="6840" windowWidth="11712" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Team Name</t>
   </si>
@@ -65,6 +64,12 @@
   </si>
   <si>
     <t>2025-03-10;2025-03-15|2025-05-10;2025-05-15</t>
+  </si>
+  <si>
+    <t>Team ID</t>
+  </si>
+  <si>
+    <t>Developer Id</t>
   </si>
 </sst>
 </file>
@@ -126,10 +131,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{5156F39C-A57D-49CD-8981-173D65261D30}"/>
+  <tableColumns count="6">
+    <tableColumn id="6" xr3:uid="{B9AC877F-98CB-4823-850D-4D4A8C5EF676}" name="Team ID"/>
     <tableColumn id="1" xr3:uid="{FCDF013B-522F-424B-BADC-9CEF21FEDF0C}" name="Team Name"/>
+    <tableColumn id="5" xr3:uid="{C46C7D10-3AD3-4E62-8700-3BCB41ED5E23}" name="Developer Id"/>
     <tableColumn id="2" xr3:uid="{6FD6B03C-FF41-424E-B780-CE9F18124A33}" name="Developer Name"/>
     <tableColumn id="3" xr3:uid="{739677C6-659D-4128-8D44-67677C3D3029}" name="Developer Vacation Date Intervals"/>
     <tableColumn id="4" xr3:uid="{CF1E86B6-655B-4B30-A05A-C620D03124E5}" name="Daily Work Hours"/>
@@ -401,84 +408,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="1" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>6</v>
       </c>
     </row>
